--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Mfng-Notch2.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Mfng-Notch2.xlsx
@@ -534,16 +534,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>12.36219633333334</v>
+        <v>12.367401</v>
       </c>
       <c r="H2">
-        <v>37.086589</v>
+        <v>37.102203</v>
       </c>
       <c r="I2">
-        <v>0.8692805094072583</v>
+        <v>0.8693283326101076</v>
       </c>
       <c r="J2">
-        <v>0.8692805094072584</v>
+        <v>0.8693283326101076</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>33.380049</v>
+        <v>1.492477333333333</v>
       </c>
       <c r="N2">
-        <v>100.140147</v>
+        <v>4.477432</v>
       </c>
       <c r="O2">
-        <v>0.3891462059670435</v>
+        <v>0.02769484181536182</v>
       </c>
       <c r="P2">
-        <v>0.3891462059670435</v>
+        <v>0.02769484181536182</v>
       </c>
       <c r="Q2">
-        <v>412.650719354287</v>
+        <v>18.458065664744</v>
       </c>
       <c r="R2">
-        <v>3713.856474188583</v>
+        <v>166.122590982696</v>
       </c>
       <c r="S2">
-        <v>0.3382772121569335</v>
+        <v>0.02407591065724918</v>
       </c>
       <c r="T2">
-        <v>0.3382772121569335</v>
+        <v>0.02407591065724918</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>12.36219633333334</v>
+        <v>12.367401</v>
       </c>
       <c r="H3">
-        <v>37.086589</v>
+        <v>37.102203</v>
       </c>
       <c r="I3">
-        <v>0.8692805094072583</v>
+        <v>0.8693283326101076</v>
       </c>
       <c r="J3">
-        <v>0.8692805094072584</v>
+        <v>0.8693283326101076</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>101.573584</v>
       </c>
       <c r="O3">
-        <v>0.3947165649764305</v>
+        <v>0.6282762845978157</v>
       </c>
       <c r="P3">
-        <v>0.3947165649764305</v>
+        <v>0.6282762845978156</v>
       </c>
       <c r="Q3">
-        <v>418.5575292294419</v>
+        <v>418.7337481117281</v>
       </c>
       <c r="R3">
-        <v>3767.017763064977</v>
+        <v>3768.603733005553</v>
       </c>
       <c r="S3">
-        <v>0.3431194166741947</v>
+        <v>0.5461783749078926</v>
       </c>
       <c r="T3">
-        <v>0.3431194166741947</v>
+        <v>0.5461783749078924</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,16 +658,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>12.36219633333334</v>
+        <v>12.367401</v>
       </c>
       <c r="H4">
-        <v>37.086589</v>
+        <v>37.102203</v>
       </c>
       <c r="I4">
-        <v>0.8692805094072583</v>
+        <v>0.8693283326101076</v>
       </c>
       <c r="J4">
-        <v>0.8692805094072584</v>
+        <v>0.8693283326101076</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,25 +679,25 @@
         <v>18.53974466666667</v>
       </c>
       <c r="N4">
-        <v>55.61923400000001</v>
+        <v>55.619234</v>
       </c>
       <c r="O4">
-        <v>0.2161372290565261</v>
+        <v>0.3440288735868225</v>
       </c>
       <c r="P4">
-        <v>0.2161372290565261</v>
+        <v>0.3440288735868225</v>
       </c>
       <c r="Q4">
-        <v>229.1919635392029</v>
+        <v>229.288456730278</v>
       </c>
       <c r="R4">
-        <v>2062.727671852826</v>
+        <v>2063.596110572502</v>
       </c>
       <c r="S4">
-        <v>0.1878838805761303</v>
+        <v>0.2990740470449659</v>
       </c>
       <c r="T4">
-        <v>0.1878838805761303</v>
+        <v>0.2990740470449659</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,13 +723,13 @@
         <v>1.434409</v>
       </c>
       <c r="H5">
-        <v>4.303227000000001</v>
+        <v>4.303227</v>
       </c>
       <c r="I5">
-        <v>0.100864260087523</v>
+        <v>0.1008273593013545</v>
       </c>
       <c r="J5">
-        <v>0.100864260087523</v>
+        <v>0.1008273593013546</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>33.380049</v>
+        <v>1.492477333333333</v>
       </c>
       <c r="N5">
-        <v>100.140147</v>
+        <v>4.477432</v>
       </c>
       <c r="O5">
-        <v>0.3891462059670435</v>
+        <v>0.02769484181536182</v>
       </c>
       <c r="P5">
-        <v>0.3891462059670435</v>
+        <v>0.02769484181536182</v>
       </c>
       <c r="Q5">
-        <v>47.88064270604101</v>
+        <v>2.140822919229333</v>
       </c>
       <c r="R5">
-        <v>430.9257843543691</v>
+        <v>19.267406273064</v>
       </c>
       <c r="S5">
-        <v>0.03925094413073266</v>
+        <v>0.002792397766511665</v>
       </c>
       <c r="T5">
-        <v>0.03925094413073266</v>
+        <v>0.002792397766511665</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,13 +785,13 @@
         <v>1.434409</v>
       </c>
       <c r="H6">
-        <v>4.303227000000001</v>
+        <v>4.303227</v>
       </c>
       <c r="I6">
-        <v>0.100864260087523</v>
+        <v>0.1008273593013545</v>
       </c>
       <c r="J6">
-        <v>0.100864260087523</v>
+        <v>0.1008273593013546</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,22 +806,22 @@
         <v>101.573584</v>
       </c>
       <c r="O6">
-        <v>0.3947165649764305</v>
+        <v>0.6282762845978157</v>
       </c>
       <c r="P6">
-        <v>0.3947165649764305</v>
+        <v>0.6282762845978156</v>
       </c>
       <c r="Q6">
-        <v>48.56602101728535</v>
+        <v>48.56602101728534</v>
       </c>
       <c r="R6">
-        <v>437.0941891555681</v>
+        <v>437.094189155568</v>
       </c>
       <c r="S6">
-        <v>0.03981279427063635</v>
+        <v>0.06334743868766404</v>
       </c>
       <c r="T6">
-        <v>0.03981279427063635</v>
+        <v>0.06334743868766404</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,13 +847,13 @@
         <v>1.434409</v>
       </c>
       <c r="H7">
-        <v>4.303227000000001</v>
+        <v>4.303227</v>
       </c>
       <c r="I7">
-        <v>0.100864260087523</v>
+        <v>0.1008273593013545</v>
       </c>
       <c r="J7">
-        <v>0.100864260087523</v>
+        <v>0.1008273593013546</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -865,25 +865,25 @@
         <v>18.53974466666667</v>
       </c>
       <c r="N7">
-        <v>55.61923400000001</v>
+        <v>55.619234</v>
       </c>
       <c r="O7">
-        <v>0.2161372290565261</v>
+        <v>0.3440288735868225</v>
       </c>
       <c r="P7">
-        <v>0.2161372290565261</v>
+        <v>0.3440288735868225</v>
       </c>
       <c r="Q7">
-        <v>26.59357660756867</v>
+        <v>26.59357660756866</v>
       </c>
       <c r="R7">
-        <v>239.3421894681181</v>
+        <v>239.342189468118</v>
       </c>
       <c r="S7">
-        <v>0.02180052168615397</v>
+        <v>0.03468752284717884</v>
       </c>
       <c r="T7">
-        <v>0.02180052168615397</v>
+        <v>0.03468752284717885</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -912,10 +912,10 @@
         <v>1.27373</v>
       </c>
       <c r="I8">
-        <v>0.02985523050521867</v>
+        <v>0.02984430808853782</v>
       </c>
       <c r="J8">
-        <v>0.02985523050521867</v>
+        <v>0.02984430808853782</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>33.380049</v>
+        <v>1.492477333333333</v>
       </c>
       <c r="N8">
-        <v>100.140147</v>
+        <v>4.477432</v>
       </c>
       <c r="O8">
-        <v>0.3891462059670435</v>
+        <v>0.02769484181536182</v>
       </c>
       <c r="P8">
-        <v>0.3891462059670435</v>
+        <v>0.02769484181536182</v>
       </c>
       <c r="Q8">
-        <v>14.17238993759</v>
+        <v>0.6336710512622222</v>
       </c>
       <c r="R8">
-        <v>127.55150943831</v>
+        <v>5.70303946136</v>
       </c>
       <c r="S8">
-        <v>0.01161804967937738</v>
+        <v>0.0008265333916009783</v>
       </c>
       <c r="T8">
-        <v>0.01161804967937738</v>
+        <v>0.0008265333916009784</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -974,10 +974,10 @@
         <v>1.27373</v>
       </c>
       <c r="I9">
-        <v>0.02985523050521867</v>
+        <v>0.02984430808853782</v>
       </c>
       <c r="J9">
-        <v>0.02985523050521867</v>
+        <v>0.02984430808853782</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,10 +992,10 @@
         <v>101.573584</v>
       </c>
       <c r="O9">
-        <v>0.3947165649764305</v>
+        <v>0.6282762845978157</v>
       </c>
       <c r="P9">
-        <v>0.3947165649764305</v>
+        <v>0.6282762845978156</v>
       </c>
       <c r="Q9">
         <v>14.37525790536889</v>
@@ -1004,10 +1004,10 @@
         <v>129.37732114832</v>
       </c>
       <c r="S9">
-        <v>0.01178435403159945</v>
+        <v>0.01875047100225908</v>
       </c>
       <c r="T9">
-        <v>0.01178435403159945</v>
+        <v>0.01875047100225908</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1036,10 +1036,10 @@
         <v>1.27373</v>
       </c>
       <c r="I10">
-        <v>0.02985523050521867</v>
+        <v>0.02984430808853782</v>
       </c>
       <c r="J10">
-        <v>0.02985523050521867</v>
+        <v>0.02984430808853782</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,13 +1051,13 @@
         <v>18.53974466666667</v>
       </c>
       <c r="N10">
-        <v>55.61923400000001</v>
+        <v>55.619234</v>
       </c>
       <c r="O10">
-        <v>0.2161372290565261</v>
+        <v>0.3440288735868225</v>
       </c>
       <c r="P10">
-        <v>0.2161372290565261</v>
+        <v>0.3440288735868225</v>
       </c>
       <c r="Q10">
         <v>7.871542991424445</v>
@@ -1066,10 +1066,10 @@
         <v>70.84388692282</v>
       </c>
       <c r="S10">
-        <v>0.006452826794241831</v>
+        <v>0.01026730369467776</v>
       </c>
       <c r="T10">
-        <v>0.006452826794241832</v>
+        <v>0.01026730369467777</v>
       </c>
     </row>
   </sheetData>
